--- a/biology/Histoire de la zoologie et de la botanique/Rudolf_Kner/Rudolf_Kner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rudolf_Kner/Rudolf_Kner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Kner est un ichtyologiste autrichien, né le 24 août 1810 à Linz et mort le 27 octobre 1869 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Après des études de médecine, en 1836, il commence à travailler sur les collections impériales d’histoire naturelle où il assiste Johann Jacob Heckel (1790-1857). Les deux hommes font un voyage en Dalmatie en 1840 pour y récolter des spécimens.
 En 1841, il part à Lvov en Ukraine où il obtient une chaire d’histoire naturelle à l’université de Lemberg. En 1849, il revient à Vienne où il enseigne la zoologie à l’université de Vienne, fonction qu’il conserve jusqu’à sa mort.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1868 : Über neue Fische aus dem Museum der Herren Johann Cäsar Godeffroy &amp; Sohn in Hamburg. (IV. Folge). Sitzungsber. Akad. Wiss. Wien, v. 58 (n° 1–2) : 26–31.</t>
         </is>
